--- a/Output_analysis/Linear_regression_with_PCA_cluster_number_0.xlsx
+++ b/Output_analysis/Linear_regression_with_PCA_cluster_number_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,26 +494,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Military expenditure (% of GDP)</t>
+          <t>Children out of school (% of primary school age)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.002368598255174806</v>
+        <v>0.01255566333379016</v>
       </c>
       <c r="F2" t="n">
-        <v>1.61076523727096</v>
+        <v>12.86597461306496</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3666527480625207</v>
+        <v>0.308140995613955</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009562939106069326</v>
+        <v>0.02947653130056706</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008766728691226663</v>
+        <v>0.005595071473957674</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3666527480625207</v>
+        <v>0.308140995613955</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -530,26 +530,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Level of water stress</t>
+          <t>Military expenditure (% of GDP)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.05662961512365801</v>
+        <v>-0.0008700982144741817</v>
       </c>
       <c r="F3" t="n">
-        <v>16.86963852207009</v>
+        <v>1.355971064073827</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2963995414753034</v>
+        <v>-0.3041536178419572</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04079520802757743</v>
+        <v>0.0317569006048431</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02690417368491428</v>
+        <v>0.000393346902100764</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2963995414753034</v>
+        <v>0.3041536178419572</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -566,26 +566,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>government  consumption exp (% of GDP)</t>
+          <t>Educational attainment, at least completed primary, population 25+ years, total (%) (cumulative)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.0164399972580833</v>
+        <v>-0.02414092575583584</v>
       </c>
       <c r="F4" t="n">
-        <v>19.7556994174181</v>
+        <v>43.6736962198143</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2772847223885663</v>
+        <v>-0.3004382268138653</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04657604098673178</v>
+        <v>0.03401170253831498</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008055978032756303</v>
+        <v>0.01106206001118376</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2772847223885663</v>
+        <v>0.3004382268138653</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -602,26 +602,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Unemployment intermediate education</t>
+          <t>Population growth (annual %)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.006221209943909885</v>
+        <v>-0.0005501913006638477</v>
       </c>
       <c r="F5" t="n">
-        <v>4.877739815551714</v>
+        <v>2.501526172133661</v>
       </c>
       <c r="G5" t="n">
-        <v>0.27080692832583</v>
+        <v>-0.2773110995722588</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04763245997393603</v>
+        <v>0.05636076046300047</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003066722420508032</v>
+        <v>0.0002810551747703532</v>
       </c>
       <c r="J5" t="n">
-        <v>0.27080692832583</v>
+        <v>0.2773110995722588</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -638,26 +638,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Central government debt, total (% of GDP)</t>
+          <t>immigration_flow</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.09825759795011396</v>
+        <v>38.65332792567145</v>
       </c>
       <c r="F6" t="n">
-        <v>31.98535213213399</v>
+        <v>3231.817465614025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2564715399870462</v>
+        <v>0.273900101043669</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0612038114294343</v>
+        <v>0.07921721680347742</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05135117884156285</v>
+        <v>21.46004247750595</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2564715399870462</v>
+        <v>0.273900101043669</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.01830942232945478</v>
+        <v>-0.09150326248723949</v>
       </c>
       <c r="F7" t="n">
-        <v>117.5589742018701</v>
+        <v>184.5253072771601</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2558317051240843</v>
+        <v>-0.2676998199775641</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06998678053365205</v>
+        <v>0.07542724773590061</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00988379069658195</v>
+        <v>0.05022350947302184</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2558317051240843</v>
+        <v>0.2676998199775641</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -710,26 +710,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">%  Poverty headcount ratio </t>
+          <t>not free</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.01525416638782838</v>
+        <v>0.0003791809967787901</v>
       </c>
       <c r="F8" t="n">
-        <v>9.071225876682409</v>
+        <v>0.5036248614020171</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2311213316544719</v>
+        <v>0.2321473588566515</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08955620095570095</v>
+        <v>0.1047478759091128</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008820431824648563</v>
+        <v>0.000229315000407703</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2311213316544719</v>
+        <v>0.2321473588566515</v>
       </c>
     </row>
     <row r="9">
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9256508819228186</v>
+        <v>-0.4628871230520149</v>
       </c>
       <c r="F9" t="n">
-        <v>817.9510422970739</v>
+        <v>1141.943040731509</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2018710663818125</v>
+        <v>-0.2270097784270078</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1512446751346009</v>
+        <v>0.1167404667560032</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6351168098542683</v>
+        <v>0.2896627287271671</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2018710663818125</v>
+        <v>0.2270097784270078</v>
       </c>
     </row>
     <row r="10">
@@ -773,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -782,26 +782,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Human Capital Index</t>
+          <t>GDP per capita (constant 2015 US$)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0001440943426824557</v>
+        <v>-0.4808838681670505</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5544500080320262</v>
+        <v>1147.161094866109</v>
       </c>
       <c r="G10" t="n">
-        <v>0.195711534682996</v>
+        <v>-0.2152978100299095</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1687095156351725</v>
+        <v>0.1461215161297975</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001031458115560071</v>
+        <v>0.3251532724071368</v>
       </c>
       <c r="J10" t="n">
-        <v>0.195711534682996</v>
+        <v>0.2152978100299095</v>
       </c>
     </row>
     <row r="11">
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -818,26 +818,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Armed forces (% labor force)</t>
+          <t>partly free</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.001012431754846785</v>
+        <v>-0.000344777863307953</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9990389551711606</v>
+        <v>0.4530748182790914</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1909042468463599</v>
+        <v>-0.2131541098826705</v>
       </c>
       <c r="H11" t="n">
-        <v>0.170907193299929</v>
+        <v>0.1372143160973359</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0007289596059073708</v>
+        <v>0.0002281013584287093</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1909042468463599</v>
+        <v>0.2131541098826705</v>
       </c>
     </row>
     <row r="12">
@@ -845,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -854,26 +854,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
+          <t>Control of Corruption: Estimate</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.003777575856006941</v>
+        <v>-0.0003089695893073818</v>
       </c>
       <c r="F12" t="n">
-        <v>4.870295555135825</v>
+        <v>-0.952478662424724</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1878354156618693</v>
+        <v>-0.2060862301326676</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1737833762897311</v>
+        <v>0.1554143658553619</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002739265959163859</v>
+        <v>0.0002139900984564357</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1878354156618693</v>
+        <v>0.2060862301326676</v>
       </c>
     </row>
     <row r="13">
@@ -881,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -890,26 +890,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GDP growth (annual %)</t>
+          <t>Educational attainment, at least Master's or equivalent, population 25+, total (%) (cumulative)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.001817556868613532</v>
+        <v>-0.0004088580869897486</v>
       </c>
       <c r="F13" t="n">
-        <v>2.261522900175954</v>
+        <v>0.6197827310283721</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1730776259730947</v>
+        <v>-0.2055032679787001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2245299075403945</v>
+        <v>0.165819013947036</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001477558844188724</v>
+        <v>0.0002902537613811402</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1730776259730947</v>
+        <v>0.2055032679787001</v>
       </c>
     </row>
     <row r="14">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -926,26 +926,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fertility rate, total (births per woman)</t>
+          <t>doing business score</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0002543944948688194</v>
+        <v>-0.01903906434938151</v>
       </c>
       <c r="F14" t="n">
-        <v>1.547082334768819</v>
+        <v>49.87442036002983</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1656923090085924</v>
+        <v>-0.1944777807426053</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2603809115296583</v>
+        <v>0.1853196866291444</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002232448926845646</v>
+        <v>0.01415873638404625</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1656923090085924</v>
+        <v>0.1944777807426053</v>
       </c>
     </row>
     <row r="15">
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -962,26 +962,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Population density</t>
+          <t>Global_Peace_Index_2023</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3087902249942024</v>
+        <v>0.0002779361897337576</v>
       </c>
       <c r="F15" t="n">
-        <v>123.7606292205625</v>
+        <v>2.480015136227505</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1631019541504051</v>
+        <v>0.1943904546662172</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2577467157315522</v>
+        <v>0.180761691629179</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2696056134664082</v>
+        <v>0.0002045769495457907</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1631019541504051</v>
+        <v>0.1943904546662172</v>
       </c>
     </row>
     <row r="16">
@@ -989,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -998,26 +998,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Poverty $3.65 a day (% of population)</t>
+          <t>Corruption index 2023</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.0005941924688323939</v>
+        <v>-0.005833024276265151</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4348465852346939</v>
+        <v>28.0395667195799</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.162717793329085</v>
+        <v>-0.1924097219033682</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2443695503845267</v>
+        <v>0.18067564440305</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0005045219890363891</v>
+        <v>0.004293924940712918</v>
       </c>
       <c r="J16" t="n">
-        <v>0.162717793329085</v>
+        <v>0.1924097219033682</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1034,26 +1034,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>% Firms using banks</t>
+          <t>Level of water stress</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.01239996627781413</v>
+        <v>0.003482207686368591</v>
       </c>
       <c r="F17" t="n">
-        <v>9.363556363738033</v>
+        <v>5.678315111997412</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1592578176564864</v>
+        <v>0.1894658430597193</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2454834289354823</v>
+        <v>0.2236578999960171</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0105585248062821</v>
+        <v>0.002818340509719565</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1592578176564864</v>
+        <v>0.1894658430597193</v>
       </c>
     </row>
     <row r="18">
@@ -1061,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1070,26 +1070,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Industry (including construction), value added (% of GDP)</t>
+          <t>GDP per capita, PPP (constant 2021 international $)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.01133364764917007</v>
+        <v>-1.157854939842712</v>
       </c>
       <c r="F18" t="n">
-        <v>25.59104842312106</v>
+        <v>3309.687921043575</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1540965526919638</v>
+        <v>-0.1858024024051544</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2802971130165216</v>
+        <v>0.2111466255844907</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01038150250006602</v>
+        <v>0.9127832082847386</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1540965526919638</v>
+        <v>0.1858024024051544</v>
       </c>
     </row>
     <row r="19">
@@ -1097,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1106,26 +1106,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Population growth (annual %)</t>
+          <t>Agricultural land (% )</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.001204798034382787</v>
+        <v>0.01319877426723266</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8497138564682007</v>
+        <v>46.59326768546389</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1494024458799754</v>
+        <v>0.1857695101071546</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2762981457302666</v>
+        <v>0.1964814330569204</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001095258749829213</v>
+        <v>0.01007656166421483</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1494024458799754</v>
+        <v>0.1857695101071546</v>
       </c>
     </row>
     <row r="20">
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1142,26 +1142,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Poverty $6.85 a day (% of population)</t>
+          <t>Birth rate, crude (per 1,000 people)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.001690771919550006</v>
+        <v>-0.003630601700058103</v>
       </c>
       <c r="F20" t="n">
-        <v>1.219591930188999</v>
+        <v>33.46821339333601</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1450221013621128</v>
+        <v>-0.182234518877008</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3099295340960391</v>
+        <v>0.2101198788294778</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001647923972802218</v>
+        <v>0.002857361825928685</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1450221013621128</v>
+        <v>0.182234518877008</v>
       </c>
     </row>
     <row r="21">
@@ -1169,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1178,26 +1178,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Poverty $2.15 a day (% of population)</t>
+          <t>GDP growth (annual %)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.0002368480747993473</v>
+        <v>-0.001644416406755898</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1917658635507042</v>
+        <v>2.766707533911107</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.137267073023311</v>
+        <v>-0.1772248383224772</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3318529911411719</v>
+        <v>0.2182305502088472</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000241706262550298</v>
+        <v>0.001318065183351623</v>
       </c>
       <c r="J21" t="n">
-        <v>0.137267073023311</v>
+        <v>0.1772248383224772</v>
       </c>
     </row>
     <row r="22">
@@ -1205,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1214,26 +1214,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Unemployment advanced education</t>
+          <t>Life expectancy at birth, total (years)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.001723203694775112</v>
+        <v>0.002634571568781209</v>
       </c>
       <c r="F22" t="n">
-        <v>3.244885216823088</v>
+        <v>62.22597485481155</v>
       </c>
       <c r="G22" t="n">
-        <v>0.135208153320529</v>
+        <v>0.1758910294555526</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3392255027010749</v>
+        <v>0.2217710090681627</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001785838896075346</v>
+        <v>0.002128244652002455</v>
       </c>
       <c r="J22" t="n">
-        <v>0.135208153320529</v>
+        <v>0.1758910294555526</v>
       </c>
     </row>
     <row r="23">
@@ -1241,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1250,26 +1250,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Current health expenditure (% of GDP)</t>
+          <t>Total alcohol consumption per capita (liters of pure alcohol, projected estimates, 15+ years of age)</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.002685565518432442</v>
+        <v>-0.001215267874377818</v>
       </c>
       <c r="F23" t="n">
-        <v>7.942692940094928</v>
+        <v>2.801743955207724</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1152094588432394</v>
+        <v>-0.1671057903354686</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4067814609112377</v>
+        <v>0.2669978117396937</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003211030282751144</v>
+        <v>0.001080946535061789</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1152094588432394</v>
+        <v>0.1671057903354686</v>
       </c>
     </row>
     <row r="24">
@@ -1277,7 +1277,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1286,26 +1286,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Government expenditure on education, total (% of GDP)</t>
+          <t>GDP (constant 2015 US$)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.0009674446153724675</v>
+        <v>-9608217.085554184</v>
       </c>
       <c r="F24" t="n">
-        <v>4.700379520102898</v>
+        <v>20106364635.43988</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1144161333209199</v>
+        <v>-0.166224334080751</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4288363407897194</v>
+        <v>0.2695651394747282</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001212430267540543</v>
+        <v>8592855.809958942</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1144161333209199</v>
+        <v>0.166224334080751</v>
       </c>
     </row>
     <row r="25">
@@ -1313,7 +1313,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1322,26 +1322,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Current account balance (% of GDP)</t>
+          <t>Population, total</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.004260588794453138</v>
+        <v>-6645.592606234532</v>
       </c>
       <c r="F25" t="n">
-        <v>1.807603052071779</v>
+        <v>18801488.78234696</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1121259020852321</v>
+        <v>-0.147808721583917</v>
       </c>
       <c r="H25" t="n">
-        <v>0.424087725574851</v>
+        <v>0.3214420784497445</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005287267140790376</v>
+        <v>6628.735641890893</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1121259020852321</v>
+        <v>0.147808721583917</v>
       </c>
     </row>
     <row r="26">
@@ -1349,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1358,26 +1358,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>doing business score</t>
+          <t>Human capital index (HCI) (scale 0-1)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.009253075899916046</v>
+        <v>0.0001163190331437064</v>
       </c>
       <c r="F26" t="n">
-        <v>75.49761824378341</v>
+        <v>0.3832695628967738</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1114420599249668</v>
+        <v>0.1472102566939515</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4269371551589921</v>
+        <v>0.3522042323338014</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01155415515670169</v>
+        <v>0.0001235734616634885</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1114420599249668</v>
+        <v>0.1472102566939515</v>
       </c>
     </row>
     <row r="27">
@@ -1385,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1394,26 +1394,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Inflation, consumer prices (annual %)</t>
+          <t>Death rate, crude (per 1,000 people)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.001023682061504843</v>
+        <v>-0.0006288145090700486</v>
       </c>
       <c r="F27" t="n">
-        <v>2.368803168500388</v>
+        <v>7.853637002058728</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1055247307352596</v>
+        <v>-0.1301351021541861</v>
       </c>
       <c r="H27" t="n">
-        <v>0.456553372171033</v>
+        <v>0.3832883698767755</v>
       </c>
       <c r="I27" t="n">
-        <v>0.001364250865816697</v>
+        <v>0.0007141886184174791</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1055247307352596</v>
+        <v>0.1301351021541861</v>
       </c>
     </row>
     <row r="28">
@@ -1421,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1430,26 +1430,26 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Population, total</t>
+          <t>Expenditure on tertiary education (% of government expenditure on education)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-15526.78688849192</v>
+        <v>-0.002893286975066009</v>
       </c>
       <c r="F28" t="n">
-        <v>16250425.39537324</v>
+        <v>4.05602774982006</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09653416760335962</v>
+        <v>-0.1226522605856422</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5048392628554006</v>
+        <v>0.4167644723543966</v>
       </c>
       <c r="I28" t="n">
-        <v>23107.17578429916</v>
+        <v>0.003529377599641591</v>
       </c>
       <c r="J28" t="n">
-        <v>0.09653416760335962</v>
+        <v>0.1226522605856422</v>
       </c>
     </row>
     <row r="29">
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1466,26 +1466,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GDP per capita, PPP (constant 2021 international $)</t>
+          <t>Expenditure on secondary education (% of government expenditure on education)</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-12.38655763751003</v>
+        <v>-0.004306737649318741</v>
       </c>
       <c r="F29" t="n">
-        <v>49023.14270742839</v>
+        <v>7.032879381141977</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08088023742120268</v>
+        <v>-0.1225461904143367</v>
       </c>
       <c r="H29" t="n">
-        <v>0.568682482200497</v>
+        <v>0.4066637500577088</v>
       </c>
       <c r="I29" t="n">
-        <v>21.58728616067932</v>
+        <v>0.005142614005926806</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08088023742120268</v>
+        <v>0.1225461904143367</v>
       </c>
     </row>
     <row r="30">
@@ -1493,7 +1493,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1502,26 +1502,26 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Corruption index 2023</t>
+          <t>Expenditure on primary education (% of government expenditure on education)</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.009132830293952595</v>
+        <v>-0.008765388186072039</v>
       </c>
       <c r="F30" t="n">
-        <v>62.73885310976532</v>
+        <v>16.6302764526013</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0714750749258049</v>
+        <v>-0.1171604012657667</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6075315117421025</v>
+        <v>0.4177726936273238</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01767408405542059</v>
+        <v>0.01072428517521619</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0714750749258049</v>
+        <v>0.1171604012657667</v>
       </c>
     </row>
     <row r="31">
@@ -1529,7 +1529,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1538,26 +1538,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>% of total population below 5 meters</t>
+          <t>Cost of business start-up (% of GNI per capita)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.001703811168476649</v>
+        <v>-0.01091664477445708</v>
       </c>
       <c r="F31" t="n">
-        <v>3.731288490184909</v>
+        <v>43.93487005311852</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.06345631471502701</v>
+        <v>-0.1070388146196459</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6648954629114289</v>
+        <v>0.484022792378495</v>
       </c>
       <c r="I31" t="n">
-        <v>0.003908602743114909</v>
+        <v>0.01546362733563677</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06345631471502701</v>
+        <v>0.1070388146196459</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1574,26 +1574,26 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Control of Corruption: Estimate</t>
+          <t>Access to electricity (% of population)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.0003586487043341005</v>
+        <v>0.008250887468724578</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9414770582208697</v>
+        <v>49.04191428727178</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05212748497795439</v>
+        <v>0.1000777104783502</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7054562639541353</v>
+        <v>0.4892534660216286</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0009437863846965607</v>
+        <v>0.0118401409091099</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05212748497795439</v>
+        <v>0.1000777104783502</v>
       </c>
     </row>
     <row r="33">
@@ -1601,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1610,26 +1610,26 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cost of business start-up (% of GNI per capita)</t>
+          <t>Fertility rate, total (births per woman)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.001217086284967406</v>
+        <v>-0.0003239432322940079</v>
       </c>
       <c r="F33" t="n">
-        <v>3.199444428358856</v>
+        <v>4.346988339282799</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.04451678165406304</v>
+        <v>-0.09776464368820552</v>
       </c>
       <c r="H33" t="n">
-        <v>0.756419686993848</v>
+        <v>0.5039488403432176</v>
       </c>
       <c r="I33" t="n">
-        <v>0.003901834207505329</v>
+        <v>0.0004810084447296391</v>
       </c>
       <c r="J33" t="n">
-        <v>0.04451678165406304</v>
+        <v>0.09776464368820552</v>
       </c>
     </row>
     <row r="34">
@@ -1637,7 +1637,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1646,26 +1646,26 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Time to start a business (days)</t>
+          <t>Population density</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.00202755327724164</v>
+        <v>-0.01652209125126023</v>
       </c>
       <c r="F34" t="n">
-        <v>9.206082536423869</v>
+        <v>70.66657350836782</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03891675040125736</v>
+        <v>-0.09603165373557232</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7841503099478859</v>
+        <v>0.5303151749464349</v>
       </c>
       <c r="I34" t="n">
-        <v>0.007362436837348094</v>
+        <v>0.02611587257637066</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03891675040125736</v>
+        <v>0.09603165373557232</v>
       </c>
     </row>
     <row r="35">
@@ -1673,7 +1673,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1682,26 +1682,26 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Birth rate, crude (per 1,000 people)</t>
+          <t>Time to start a business (days)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.0005171295851084278</v>
+        <v>-0.01584645992982953</v>
       </c>
       <c r="F35" t="n">
-        <v>10.13136999966619</v>
+        <v>23.12694708820151</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03732298727848684</v>
+        <v>-0.09005591838787833</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7969256793703929</v>
+        <v>0.5517157185669286</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001998479376883616</v>
+        <v>0.0264195490209605</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03732298727848684</v>
+        <v>0.09005591838787833</v>
       </c>
     </row>
     <row r="36">
@@ -1709,7 +1709,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1718,26 +1718,26 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unemployment basic education </t>
+          <t>Inflation, consumer prices (annual %)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.001760773036666602</v>
+        <v>-0.00165497461202394</v>
       </c>
       <c r="F36" t="n">
-        <v>8.14301477918425</v>
+        <v>6.980323644488181</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03680671837888714</v>
+        <v>-0.08197913589073678</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7915997753480937</v>
+        <v>0.5880796727016964</v>
       </c>
       <c r="I36" t="n">
-        <v>0.006629491722813069</v>
+        <v>0.003033174389098421</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03680671837888714</v>
+        <v>0.08197913589073678</v>
       </c>
     </row>
     <row r="37">
@@ -1745,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1754,26 +1754,26 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GNI per capita (2015 US$)</t>
+          <t>Population in urban agglomerations of more than 1 million (% of total population)</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-5.576579639685508</v>
+        <v>-0.002170713976010079</v>
       </c>
       <c r="F37" t="n">
-        <v>33707.92678225435</v>
+        <v>11.69772035716994</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.03290297463505008</v>
+        <v>-0.07141032340284655</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8115128800299236</v>
+        <v>0.6258394254630932</v>
       </c>
       <c r="I37" t="n">
-        <v>23.26802914544891</v>
+        <v>0.004422649398814481</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03290297463505008</v>
+        <v>0.07141032340284655</v>
       </c>
     </row>
     <row r="38">
@@ -1781,7 +1781,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1790,26 +1790,26 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Agricultural land (% )</t>
+          <t>Arable land (hectares per person)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.004430575329752813</v>
+        <v>1.897454464766333e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>32.95562268761446</v>
+        <v>0.1678991876442141</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.02339304308517453</v>
+        <v>0.06891012233674762</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8653830993985416</v>
+        <v>0.6416504126978808</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02600857790083115</v>
+        <v>4.050193974327245e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02339304308517453</v>
+        <v>0.06891012233674762</v>
       </c>
     </row>
     <row r="39">
@@ -1817,7 +1817,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1826,26 +1826,26 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GDP per capita (constant 2015 US$)</t>
+          <t>Adolescents out of school (% of lower secondary school age)</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.673533899184514</v>
+        <v>0.004448181580184088</v>
       </c>
       <c r="F39" t="n">
-        <v>33030.40727777151</v>
+        <v>27.84033391298248</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02185812429914585</v>
+        <v>0.06517358601024686</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8753362550421471</v>
+        <v>0.6529488981964217</v>
       </c>
       <c r="I39" t="n">
-        <v>23.30052550015783</v>
+        <v>0.0098302814622169</v>
       </c>
       <c r="J39" t="n">
-        <v>0.02185812429914585</v>
+        <v>0.06517358601024686</v>
       </c>
     </row>
     <row r="40">
@@ -1853,7 +1853,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1862,26 +1862,26 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Global_Peace_Index_2023</t>
+          <t>Population in the largest city (% of urban population)</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.161958770277529e-05</v>
+        <v>-0.007777181573798876</v>
       </c>
       <c r="F40" t="n">
-        <v>1.656261877731824</v>
+        <v>34.14800986324634</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01294084343140222</v>
+        <v>-0.06332871965162898</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9319774794559451</v>
+        <v>0.6793995095868068</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0006012972846738971</v>
+        <v>0.01869023134964472</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01294084343140222</v>
+        <v>0.06332871965162898</v>
       </c>
     </row>
     <row r="41">
@@ -1889,7 +1889,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1898,26 +1898,26 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Death rate, crude (per 1,000 people)</t>
+          <t>Lifetime risk of maternal death (%)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.0002535762607383734</v>
+        <v>-0.0002248312069571592</v>
       </c>
       <c r="F41" t="n">
-        <v>8.469447071343453</v>
+        <v>1.821703501770516</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0087501341607176</v>
+        <v>-0.0633015847619668</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9494452812687183</v>
+        <v>0.6725051700274731</v>
       </c>
       <c r="I41" t="n">
-        <v>0.003980515508011013</v>
+        <v>0.0005284012977415545</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0087501341607176</v>
+        <v>0.0633015847619668</v>
       </c>
     </row>
     <row r="42">
@@ -1925,7 +1925,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1934,26 +1934,26 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Total alcohol consumption per capita (liters of pure alcohol, projected estimates, 15+ years of age)</t>
+          <t>clean fuels for cooking (% of population)</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.0002960489387741534</v>
+        <v>-0.003280682288367039</v>
       </c>
       <c r="F42" t="n">
-        <v>7.942979892831021</v>
+        <v>16.93426116060191</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.008574827126560908</v>
+        <v>-0.05886008270444071</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9504568556604358</v>
+        <v>0.694319862536922</v>
       </c>
       <c r="I42" t="n">
-        <v>0.004742247690956016</v>
+        <v>0.008294370563887736</v>
       </c>
       <c r="J42" t="n">
-        <v>0.008574827126560908</v>
+        <v>0.05886008270444071</v>
       </c>
     </row>
     <row r="43">
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1970,26 +1970,26 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Life expectancy at birth, total (years)</t>
+          <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-3.071592611387746e-05</v>
+        <v>0.001054656819953091</v>
       </c>
       <c r="F43" t="n">
-        <v>79.68232591407032</v>
+        <v>6.798598908266382</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.001148370892955038</v>
+        <v>0.05807845790993262</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9933609358215107</v>
+        <v>0.6918181388615313</v>
       </c>
       <c r="I43" t="n">
-        <v>0.00367403438825587</v>
+        <v>0.002644316657697467</v>
       </c>
       <c r="J43" t="n">
-        <v>0.001148370892955038</v>
+        <v>0.05807845790993262</v>
       </c>
     </row>
     <row r="44">
@@ -1997,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2006,26 +2006,26 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Total debt service (% of GNI)</t>
+          <t>Rural population (% of total population)</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-0.003383586874240929</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>57.44370771563423</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-0.05662388379362691</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.6961092552014203</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.008611121338655044</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.05662388379362691</v>
       </c>
     </row>
     <row r="45">
@@ -2033,7 +2033,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2042,26 +2042,26 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Total debt service (% of exports of goods, services and primary income)</t>
+          <t>Arable land (% of land area)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-0.002446093076503756</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>15.40901485548405</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>-0.05491090359651556</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.7078564492707793</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.006487983339911611</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.05491090359651556</v>
       </c>
     </row>
     <row r="46">
@@ -2069,7 +2069,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2078,26 +2078,26 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Population living in slums (% of urban population)</t>
+          <t>Armed forces personnel, total</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>6.331629147522758</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>18403.60616139049</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.02874688383426788</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.8620862389365481</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.19464426830915</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.02874688383426788</v>
       </c>
     </row>
     <row r="47">
@@ -2105,7 +2105,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2114,26 +2114,26 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Access to electricity (% of population)</t>
+          <t>Armed forces (% labor force)</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>9.944817978506416e-05</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>0.3963166986059016</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.01937893199783765</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0.9030486722414244</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.000811251365319869</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>0.01937893199783765</v>
       </c>
     </row>
     <row r="48">
@@ -2141,7 +2141,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2150,26 +2150,26 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+          <t>Intentional homicides (per 100,000 people)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2.178884760275813e-05</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1.310690593020205</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.003078698519933673</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.984175879356052</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.001092044648578463</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>0.003078698519933673</v>
       </c>
     </row>
     <row r="49">
@@ -2177,7 +2177,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2186,14 +2186,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>clean fuels for cooking (% of population)</t>
+          <t>Central government debt, total (% of GDP)</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2205,6 +2205,78 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>immigration_100k</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Children in employment, total (% of children ages 7-14)</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>48</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>immigration_100k</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>
